--- a/nydailynews.xlsx
+++ b/nydailynews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Links</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>https://www.nydailynews.com/opinion/ny-edit-labor-municipal-workforce-nyc-mayor-speaker-adams-mlc-bill-legislation-20230108-ykfvtojl3zfkpknaycycmuirii-story.html</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21 hours ago</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +478,11 @@
           <t>https://www.nydailynews.com/news/politics/new-york-elections-government/ny-nyc-received-more-than-ninety-rat-czar-applications-20230106-iuovnitqtjco7hydz4gsovzpe4-story.html</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>January 6, 2023</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +495,11 @@
           <t>https://www.nydailynews.com/news/politics/new-york-elections-government/ny-curtis-sliwa-mayor-adams-rats-20230105-m6zbk3avfbbsdjl47qiiweimom-story.html</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>January 5, 2023</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +512,11 @@
           <t>https://www.nydailynews.com/news/politics/new-york-elections-government/ny-adams-adviser-ingrid-lewis-martin-fined-misusing-post-20230105-2kfwm3kicbe2rdyaeqvdiicbyq-story.html</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>January 5, 2023</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,28 +529,43 @@
           <t>https://www.nydailynews.com/news/politics/us-elections-government/ny-biden-toughening-border-enforcement-20230105-dhjbyutnqvcdtddesaybkgsdxy-story.html</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>January 5, 2023</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NYPD Commissioner Sewell says she and top aides to Mayor Adams share public safety goals</t>
+          <t>Mayor Adams blasts de Blasio administration officials for criticizing him, blames them for ‘mess we inherited’</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.nydailynews.com/new-york/nyc-crime/ny-commissioner-keechant-sewell-nypd-phil-banks-mayor-adams-20230104-bckg4ek4sjf7lf3jwbilliyj74-story.html</t>
+          <t>https://www.nydailynews.com/news/politics/new-york-elections-government/ny-mayor-adams-blasts-de-blasio-administration-nyc-mess-20230104-hm2pwnpxfzhgtgp6x5jlk2yp7a-story.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>January 4, 2023</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mayor Adams blasts de Blasio administration officials for criticizing him, blames them for ‘mess we inherited’</t>
+          <t>NYPD Commissioner Sewell says she and top aides to Mayor Adams share public safety goals</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.nydailynews.com/news/politics/new-york-elections-government/ny-mayor-adams-blasts-de-blasio-administration-nyc-mess-20230104-hm2pwnpxfzhgtgp6x5jlk2yp7a-story.html</t>
+          <t>https://www.nydailynews.com/new-york/nyc-crime/ny-commissioner-keechant-sewell-nypd-phil-banks-mayor-adams-20230104-bckg4ek4sjf7lf3jwbilliyj74-story.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>January 4, 2023</t>
         </is>
       </c>
     </row>
@@ -540,6 +580,11 @@
           <t>https://www.nydailynews.com/news/politics/new-york-elections-government/ny-mayor-adams-scorches-colorado-governor-jared-polis-20230105-ks5ipbr4zrhqndi3xgp6eegore-story.html</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>January 4, 2023</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +597,11 @@
           <t>https://www.nydailynews.com/news/politics/new-york-elections-government/ny-mayor-adams-open-curtis-sliwa-rat-czar-20230104-a2322hhnpbeq3kjpinyumws6mm-story.html</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>January 4, 2023</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,28 +614,9 @@
           <t>https://www.nydailynews.com/news/politics/new-york-elections-government/ny-mayor-adams-one-year-first-term-2022-crime-housing-budget-20221231-kd4t5kml7veztpjgez352olaty-story.html</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Yahoo Sports</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://sports.yahoo.com//ncaaf/players/214608?fr=sycsrp_catchall</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Yahoo Fantasy</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://sports.yahoo.com/ncaaf/teams/portland-st/?fr=sycsrp_catchall</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>January 4, 2023</t>
         </is>
       </c>
     </row>
